--- a/StreamRes/ExcelTable/Excel/Volume.xlsx
+++ b/StreamRes/ExcelTable/Excel/Volume.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>相关描述</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -132,6 +144,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/StreamRes/ExcelTable/Excel/Volume.xlsx
+++ b/StreamRes/ExcelTable/Excel/Volume.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>名字</t>
   </si>
   <si>
     <t>中文名</t>
@@ -135,27 +132,27 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
